--- a/examples/javascript/svg/SVGNavigationTiming/SVGNavigationTiming/Design/PerformanceResourceTimingData.xlsx
+++ b/examples/javascript/svg/SVGNavigationTiming/SVGNavigationTiming/Design/PerformanceResourceTimingData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="400" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="400" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="ApplicationPerformance" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
     <t>loadEventEnd as long</t>
   </si>
   <si>
-    <t>Timestamp as long</t>
+    <t>Timestamp as DateTime</t>
   </si>
   <si>
     <t>name as string</t>
@@ -158,25 +158,25 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J1" activeCellId="0" pane="topLeft" sqref="J1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J1" activeCellId="0" pane="topLeft" sqref="J:J"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.556862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4039215686274"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.84705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.878431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.2901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -226,23 +226,23 @@
   </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K6" activeCellId="0" pane="topLeft" sqref="K6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G9" activeCellId="1" pane="topLeft" sqref="J:J G9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.2392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.556862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.84705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.756862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.643137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5882352941177"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.878431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
